--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Rln1-Rxfp2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Rln1-Rxfp2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9914139999999999</v>
+        <v>0.08104266666666667</v>
       </c>
       <c r="H2">
-        <v>2.974242</v>
+        <v>0.243128</v>
       </c>
       <c r="I2">
-        <v>0.5837683597777464</v>
+        <v>0.1109852216299026</v>
       </c>
       <c r="J2">
-        <v>0.5837683597777463</v>
+        <v>0.1109852216299026</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,27 +558,27 @@
         <v>1.709657</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9886227745742286</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9886227745742288</v>
       </c>
       <c r="Q2">
-        <v>0.5649926283326666</v>
+        <v>0.04618505412177777</v>
       </c>
       <c r="R2">
-        <v>5.084933654994</v>
+        <v>0.415665487096</v>
       </c>
       <c r="S2">
-        <v>0.5837683597777464</v>
+        <v>0.10972251774449</v>
       </c>
       <c r="T2">
-        <v>0.5837683597777463</v>
+        <v>0.10972251774449</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -587,7 +587,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -596,51 +596,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5478883333333333</v>
+        <v>0.08104266666666667</v>
       </c>
       <c r="H3">
-        <v>1.643665</v>
+        <v>0.243128</v>
       </c>
       <c r="I3">
-        <v>0.3226098014465836</v>
+        <v>0.1109852216299026</v>
       </c>
       <c r="J3">
-        <v>0.3226098014465835</v>
+        <v>0.1109852216299026</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.5698856666666666</v>
+        <v>0.006558333333333333</v>
       </c>
       <c r="N3">
-        <v>1.709657</v>
+        <v>0.019675</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.01137722542577134</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.01137722542577134</v>
       </c>
       <c r="Q3">
-        <v>0.3122337081005555</v>
+        <v>0.0005315048222222222</v>
       </c>
       <c r="R3">
-        <v>2.810103372905</v>
+        <v>0.0047835434</v>
       </c>
       <c r="S3">
-        <v>0.3226098014465836</v>
+        <v>0.001262703885412594</v>
       </c>
       <c r="T3">
-        <v>0.3226098014465835</v>
+        <v>0.001262703885412595</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.158998</v>
+        <v>0.5478883333333334</v>
       </c>
       <c r="H4">
-        <v>0.476994</v>
+        <v>1.643665</v>
       </c>
       <c r="I4">
-        <v>0.09362183877567004</v>
+        <v>0.7503147490635131</v>
       </c>
       <c r="J4">
-        <v>0.09362183877567003</v>
+        <v>0.7503147490635131</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,208 @@
         <v>1.709657</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.9886227745742286</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.9886227745742288</v>
       </c>
       <c r="Q4">
-        <v>0.09061068122866665</v>
+        <v>0.3122337081005556</v>
       </c>
       <c r="R4">
-        <v>0.815496131058</v>
+        <v>2.810103372905</v>
       </c>
       <c r="S4">
-        <v>0.09362183877567004</v>
+        <v>0.7417782490231365</v>
       </c>
       <c r="T4">
-        <v>0.09362183877567003</v>
+        <v>0.7417782490231366</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.5478883333333334</v>
+      </c>
+      <c r="H5">
+        <v>1.643665</v>
+      </c>
+      <c r="I5">
+        <v>0.7503147490635131</v>
+      </c>
+      <c r="J5">
+        <v>0.7503147490635131</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.006558333333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.019675</v>
+      </c>
+      <c r="O5">
+        <v>0.01137722542577134</v>
+      </c>
+      <c r="P5">
+        <v>0.01137722542577134</v>
+      </c>
+      <c r="Q5">
+        <v>0.003593234319444445</v>
+      </c>
+      <c r="R5">
+        <v>0.032339108875</v>
+      </c>
+      <c r="S5">
+        <v>0.008536500040376642</v>
+      </c>
+      <c r="T5">
+        <v>0.008536500040376642</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.1012803333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.303841</v>
+      </c>
+      <c r="I6">
+        <v>0.1387000293065843</v>
+      </c>
+      <c r="J6">
+        <v>0.1387000293065843</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.5698856666666666</v>
+      </c>
+      <c r="N6">
+        <v>1.709657</v>
+      </c>
+      <c r="O6">
+        <v>0.9886227745742286</v>
+      </c>
+      <c r="P6">
+        <v>0.9886227745742288</v>
+      </c>
+      <c r="Q6">
+        <v>0.05771821028188889</v>
+      </c>
+      <c r="R6">
+        <v>0.5194638925370001</v>
+      </c>
+      <c r="S6">
+        <v>0.1371220078066022</v>
+      </c>
+      <c r="T6">
+        <v>0.1371220078066022</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.1012803333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.303841</v>
+      </c>
+      <c r="I7">
+        <v>0.1387000293065843</v>
+      </c>
+      <c r="J7">
+        <v>0.1387000293065843</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.006558333333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.019675</v>
+      </c>
+      <c r="O7">
+        <v>0.01137722542577134</v>
+      </c>
+      <c r="P7">
+        <v>0.01137722542577134</v>
+      </c>
+      <c r="Q7">
+        <v>0.0006642301861111111</v>
+      </c>
+      <c r="R7">
+        <v>0.005978071675</v>
+      </c>
+      <c r="S7">
+        <v>0.001578021499982101</v>
+      </c>
+      <c r="T7">
+        <v>0.001578021499982101</v>
       </c>
     </row>
   </sheetData>
